--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Col8a1</t>
+  </si>
+  <si>
+    <t>Itga2</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Col8a1</t>
-  </si>
-  <si>
-    <t>Itga2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.822377</v>
+        <v>6.197291666666668</v>
       </c>
       <c r="H2">
-        <v>11.467131</v>
+        <v>18.591875</v>
       </c>
       <c r="I2">
-        <v>0.03890947148630491</v>
+        <v>0.06973483551850854</v>
       </c>
       <c r="J2">
-        <v>0.03890947148630491</v>
+        <v>0.06973483551850854</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N2">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O2">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P2">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q2">
-        <v>10.03593621764933</v>
+        <v>20.69493832166667</v>
       </c>
       <c r="R2">
-        <v>90.323425958844</v>
+        <v>186.254444895</v>
       </c>
       <c r="S2">
-        <v>0.02129488717622231</v>
+        <v>0.04222416885130021</v>
       </c>
       <c r="T2">
-        <v>0.02129488717622231</v>
+        <v>0.04222416885130021</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.822377</v>
+        <v>6.197291666666668</v>
       </c>
       <c r="H3">
-        <v>11.467131</v>
+        <v>18.591875</v>
       </c>
       <c r="I3">
-        <v>0.03890947148630491</v>
+        <v>0.06973483551850854</v>
       </c>
       <c r="J3">
-        <v>0.03890947148630491</v>
+        <v>0.06973483551850854</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.204062</v>
       </c>
       <c r="O3">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P3">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q3">
-        <v>5.356503298458001</v>
+        <v>8.684599466250003</v>
       </c>
       <c r="R3">
-        <v>48.20852968612201</v>
+        <v>78.16139519625001</v>
       </c>
       <c r="S3">
-        <v>0.0113657690648858</v>
+        <v>0.01771930839170143</v>
       </c>
       <c r="T3">
-        <v>0.0113657690648858</v>
+        <v>0.01771930839170143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,14 +646,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.822377</v>
+        <v>6.197291666666668</v>
       </c>
       <c r="H4">
-        <v>11.467131</v>
+        <v>18.591875</v>
       </c>
       <c r="I4">
-        <v>0.03890947148630491</v>
+        <v>0.06973483551850854</v>
       </c>
       <c r="J4">
-        <v>0.03890947148630491</v>
+        <v>0.06973483551850854</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N4">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O4">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P4">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q4">
-        <v>0.252490935112</v>
+        <v>0.8292823213194447</v>
       </c>
       <c r="R4">
-        <v>2.272418416008</v>
+        <v>7.463540891875001</v>
       </c>
       <c r="S4">
-        <v>0.0005357513100544875</v>
+        <v>0.001691996188465587</v>
       </c>
       <c r="T4">
-        <v>0.0005357513100544875</v>
+        <v>0.001691996188465587</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.822377</v>
+        <v>6.197291666666668</v>
       </c>
       <c r="H5">
-        <v>11.467131</v>
+        <v>18.591875</v>
       </c>
       <c r="I5">
-        <v>0.03890947148630491</v>
+        <v>0.06973483551850854</v>
       </c>
       <c r="J5">
-        <v>0.03890947148630491</v>
+        <v>0.06973483551850854</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N5">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O5">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P5">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q5">
-        <v>2.692474714046</v>
+        <v>3.96966484826389</v>
       </c>
       <c r="R5">
-        <v>24.232272426414</v>
+        <v>35.726983634375</v>
       </c>
       <c r="S5">
-        <v>0.005713063935142316</v>
+        <v>0.008099362087041317</v>
       </c>
       <c r="T5">
-        <v>0.005713063935142317</v>
+        <v>0.008099362087041316</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>230.074539</v>
       </c>
       <c r="I6">
-        <v>0.7806729263793399</v>
+        <v>0.8629689116434827</v>
       </c>
       <c r="J6">
-        <v>0.7806729263793399</v>
+        <v>0.8629689116434827</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N6">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O6">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P6">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q6">
-        <v>201.3592936811373</v>
+        <v>256.099957319576</v>
       </c>
       <c r="R6">
-        <v>1812.233643130236</v>
+        <v>2304.899615876184</v>
       </c>
       <c r="S6">
-        <v>0.4272569442283653</v>
+        <v>0.5225242845662986</v>
       </c>
       <c r="T6">
-        <v>0.4272569442283653</v>
+        <v>0.5225242845662986</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>230.074539</v>
       </c>
       <c r="I7">
-        <v>0.7806729263793399</v>
+        <v>0.8629689116434827</v>
       </c>
       <c r="J7">
-        <v>0.7806729263793399</v>
+        <v>0.8629689116434827</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.204062</v>
       </c>
       <c r="O7">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P7">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q7">
         <v>107.471958508602</v>
@@ -883,10 +883,10 @@
         <v>967.247626577418</v>
       </c>
       <c r="S7">
-        <v>0.2280408306126494</v>
+        <v>0.2192765231919609</v>
       </c>
       <c r="T7">
-        <v>0.2280408306126494</v>
+        <v>0.2192765231919608</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +915,40 @@
         <v>230.074539</v>
       </c>
       <c r="I8">
-        <v>0.7806729263793399</v>
+        <v>0.8629689116434827</v>
       </c>
       <c r="J8">
-        <v>0.7806729263793399</v>
+        <v>0.8629689116434827</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N8">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O8">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P8">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q8">
-        <v>5.065934582728</v>
+        <v>10.26237255674434</v>
       </c>
       <c r="R8">
-        <v>45.593411244552</v>
+        <v>92.36135301069901</v>
       </c>
       <c r="S8">
-        <v>0.01074922190035435</v>
+        <v>0.0209384606475128</v>
       </c>
       <c r="T8">
-        <v>0.01074922190035435</v>
+        <v>0.0209384606475128</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>230.074539</v>
       </c>
       <c r="I9">
-        <v>0.7806729263793399</v>
+        <v>0.8629689116434827</v>
       </c>
       <c r="J9">
-        <v>0.7806729263793399</v>
+        <v>0.8629689116434827</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N9">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O9">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P9">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q9">
-        <v>54.021348374174</v>
+        <v>49.12462083296167</v>
       </c>
       <c r="R9">
-        <v>486.192135367566</v>
+        <v>442.121587496655</v>
       </c>
       <c r="S9">
-        <v>0.1146259296379708</v>
+        <v>0.1002296432377105</v>
       </c>
       <c r="T9">
-        <v>0.1146259296379708</v>
+        <v>0.1002296432377105</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.097817</v>
+        <v>5.980576333333334</v>
       </c>
       <c r="H10">
-        <v>0.293451</v>
+        <v>17.941729</v>
       </c>
       <c r="I10">
-        <v>0.0009957175266531498</v>
+        <v>0.06729625283800879</v>
       </c>
       <c r="J10">
-        <v>0.00099571752665315</v>
+        <v>0.06729625283800879</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N10">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O10">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P10">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q10">
-        <v>0.2568258371693333</v>
+        <v>19.97124953986934</v>
       </c>
       <c r="R10">
-        <v>2.311432534524</v>
+        <v>179.741245858824</v>
       </c>
       <c r="S10">
-        <v>0.0005449493806907423</v>
+        <v>0.04074761662179149</v>
       </c>
       <c r="T10">
-        <v>0.0005449493806907424</v>
+        <v>0.04074761662179149</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.097817</v>
+        <v>5.980576333333334</v>
       </c>
       <c r="H11">
-        <v>0.293451</v>
+        <v>17.941729</v>
       </c>
       <c r="I11">
-        <v>0.0009957175266531498</v>
+        <v>0.06729625283800879</v>
       </c>
       <c r="J11">
-        <v>0.00099571752665315</v>
+        <v>0.06729625283800879</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.204062</v>
       </c>
       <c r="O11">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P11">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q11">
-        <v>0.137076244218</v>
+        <v>8.380904567022002</v>
       </c>
       <c r="R11">
-        <v>1.233686197962</v>
+        <v>75.42814110319802</v>
       </c>
       <c r="S11">
-        <v>0.0002908570851645283</v>
+        <v>0.01709967548896133</v>
       </c>
       <c r="T11">
-        <v>0.0002908570851645283</v>
+        <v>0.01709967548896132</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.097817</v>
+        <v>5.980576333333334</v>
       </c>
       <c r="H12">
-        <v>0.293451</v>
+        <v>17.941729</v>
       </c>
       <c r="I12">
-        <v>0.0009957175266531498</v>
+        <v>0.06729625283800879</v>
       </c>
       <c r="J12">
-        <v>0.00099571752665315</v>
+        <v>0.06729625283800879</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N12">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O12">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P12">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q12">
-        <v>0.006461399752</v>
+        <v>0.8002828479432225</v>
       </c>
       <c r="R12">
-        <v>0.058152597768</v>
+        <v>7.202545631489002</v>
       </c>
       <c r="S12">
-        <v>1.371020856801927E-05</v>
+        <v>0.001632828161897737</v>
       </c>
       <c r="T12">
-        <v>1.371020856801927E-05</v>
+        <v>0.001632828161897737</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.097817</v>
+        <v>5.980576333333334</v>
       </c>
       <c r="H13">
-        <v>0.293451</v>
+        <v>17.941729</v>
       </c>
       <c r="I13">
-        <v>0.0009957175266531498</v>
+        <v>0.06729625283800879</v>
       </c>
       <c r="J13">
-        <v>0.00099571752665315</v>
+        <v>0.06729625283800879</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N13">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O13">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P13">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q13">
-        <v>0.068902099166</v>
+        <v>3.830848202689445</v>
       </c>
       <c r="R13">
-        <v>0.6201188924940001</v>
+        <v>34.47763382420501</v>
       </c>
       <c r="S13">
-        <v>0.0001462008522298601</v>
+        <v>0.007816132565358239</v>
       </c>
       <c r="T13">
-        <v>0.0001462008522298601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>17.62599333333333</v>
-      </c>
-      <c r="H14">
-        <v>52.87798</v>
-      </c>
-      <c r="I14">
-        <v>0.1794218846077019</v>
-      </c>
-      <c r="J14">
-        <v>0.1794218846077019</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>2.625574666666667</v>
-      </c>
-      <c r="N14">
-        <v>7.876724</v>
-      </c>
-      <c r="O14">
-        <v>0.5472931490143097</v>
-      </c>
-      <c r="P14">
-        <v>0.5472931490143097</v>
-      </c>
-      <c r="Q14">
-        <v>46.27836157083556</v>
-      </c>
-      <c r="R14">
-        <v>416.50525413752</v>
-      </c>
-      <c r="S14">
-        <v>0.09819636822903127</v>
-      </c>
-      <c r="T14">
-        <v>0.09819636822903129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>17.62599333333333</v>
-      </c>
-      <c r="H15">
-        <v>52.87798</v>
-      </c>
-      <c r="I15">
-        <v>0.1794218846077019</v>
-      </c>
-      <c r="J15">
-        <v>0.1794218846077019</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.401354</v>
-      </c>
-      <c r="N15">
-        <v>4.204062</v>
-      </c>
-      <c r="O15">
-        <v>0.292108030017479</v>
-      </c>
-      <c r="P15">
-        <v>0.292108030017479</v>
-      </c>
-      <c r="Q15">
-        <v>24.70025626164</v>
-      </c>
-      <c r="R15">
-        <v>222.30230635476</v>
-      </c>
-      <c r="S15">
-        <v>0.05241057325477924</v>
-      </c>
-      <c r="T15">
-        <v>0.05241057325477924</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>17.62599333333333</v>
-      </c>
-      <c r="H16">
-        <v>52.87798</v>
-      </c>
-      <c r="I16">
-        <v>0.1794218846077019</v>
-      </c>
-      <c r="J16">
-        <v>0.1794218846077019</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.066056</v>
-      </c>
-      <c r="N16">
-        <v>0.198168</v>
-      </c>
-      <c r="O16">
-        <v>0.01376917469164436</v>
-      </c>
-      <c r="P16">
-        <v>0.01376917469164436</v>
-      </c>
-      <c r="Q16">
-        <v>1.164302615626667</v>
-      </c>
-      <c r="R16">
-        <v>10.47872354064</v>
-      </c>
-      <c r="S16">
-        <v>0.002470491272667504</v>
-      </c>
-      <c r="T16">
-        <v>0.002470491272667504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>17.62599333333333</v>
-      </c>
-      <c r="H17">
-        <v>52.87798</v>
-      </c>
-      <c r="I17">
-        <v>0.1794218846077019</v>
-      </c>
-      <c r="J17">
-        <v>0.1794218846077019</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.704398</v>
-      </c>
-      <c r="N17">
-        <v>2.113194</v>
-      </c>
-      <c r="O17">
-        <v>0.1468296462765669</v>
-      </c>
-      <c r="P17">
-        <v>0.1468296462765669</v>
-      </c>
-      <c r="Q17">
-        <v>12.41571445201333</v>
-      </c>
-      <c r="R17">
-        <v>111.74143006812</v>
-      </c>
-      <c r="S17">
-        <v>0.02634445185122387</v>
-      </c>
-      <c r="T17">
-        <v>0.02634445185122388</v>
+        <v>0.007816132565358239</v>
       </c>
     </row>
   </sheetData>
